--- a/DB_EJERCICIOS.xlsx
+++ b/DB_EJERCICIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Carlos\Desktop\RutinasGimnasioJC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{453B42BB-6EB8-4C33-803D-EBEC356719F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDE44CC-7D4A-4F5F-B9D9-7DBA20B35B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EC159D6-1FE1-40EB-A0C8-7F022673E94B}"/>
   </bookViews>
@@ -35,15 +35,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>nomb</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>Espalda pegada, bajar pecho</t>
+  </si>
+  <si>
+    <t>Barra</t>
+  </si>
+  <si>
+    <t>Peso Muerto</t>
+  </si>
+  <si>
+    <t>Barra en trapecios, bajar rompiendo paralelo, espalda recta.</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Empuje vertical estricto, bloqueo de codos arriba.</t>
+  </si>
+  <si>
+    <t>Remo Dorsal</t>
+  </si>
+  <si>
+    <t>Zancada</t>
+  </si>
+  <si>
+    <t>Press de Banca</t>
+  </si>
+  <si>
+    <t>Squats</t>
+  </si>
+  <si>
+    <t>sentadillabarra.jpg</t>
+  </si>
+  <si>
+    <t>zancadabarra.jpg</t>
+  </si>
+  <si>
+    <t>pesomuertobarra.jpg</t>
+  </si>
+  <si>
+    <t>pressbancabarra.jpg</t>
+  </si>
+  <si>
+    <t>overheadbarra.jpg</t>
+  </si>
+  <si>
+    <t>remodorsalbarra.jpg</t>
+  </si>
+  <si>
+    <t>Curl de bicesp</t>
+  </si>
+  <si>
+    <t>curldebicepsbarra.jpg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +480,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5287D53-E21F-4934-B1F4-440C04761F9B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>